--- a/SampleInitialStatsInput/test3.xlsx
+++ b/SampleInitialStatsInput/test3.xlsx
@@ -21,6 +21,53 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
+    <t>fanaliss</t>
+  </si>
+  <si>
+    <t>NeoXen</t>
+  </si>
+  <si>
+    <t>DasAuto</t>
+  </si>
+  <si>
+    <t>rtSun</t>
+  </si>
+  <si>
+    <t>millerrrrrrrr</t>
+  </si>
+  <si>
+    <t>shozki</t>
+  </si>
+  <si>
+    <t>RES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mzdong</t>
+  </si>
+  <si>
+    <t>gbcwbz</t>
+  </si>
+  <si>
+    <t>EvilYvonne</t>
+  </si>
+  <si>
+    <t>aeolusnee</t>
+  </si>
+  <si>
+    <t>Niubility</t>
+  </si>
+  <si>
+    <t>zlowz</t>
+  </si>
+  <si>
+    <t>Jason1989</t>
+  </si>
+  <si>
+    <t>ENL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>AgentName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -29,86 +76,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Pre-Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pre-AP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pre-Distance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Post-Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Post-AP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Post-Distance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Delta-Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Delta-AP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Delta-Distance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fanaliss</t>
-  </si>
-  <si>
-    <t>NeoXen</t>
-  </si>
-  <si>
-    <t>DasAuto</t>
-  </si>
-  <si>
-    <t>rtSun</t>
-  </si>
-  <si>
-    <t>millerrrrrrrr</t>
-  </si>
-  <si>
-    <t>shozki</t>
-  </si>
-  <si>
-    <t>RES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mzdong</t>
-  </si>
-  <si>
-    <t>gbcwbz</t>
-  </si>
-  <si>
-    <t>EvilYvonne</t>
-  </si>
-  <si>
-    <t>aeolusnee</t>
-  </si>
-  <si>
-    <t>Niubility</t>
-  </si>
-  <si>
-    <t>zlowz</t>
-  </si>
-  <si>
-    <t>Jason1989</t>
-  </si>
-  <si>
-    <t>ENL</t>
+    <t>Pre_Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre_AP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre_Distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post_Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post_AP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post_Distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delta_Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delta_AP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delta_Distance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,52 +437,52 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -496,10 +496,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>13</v>
@@ -513,10 +513,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -530,10 +530,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>9</v>
@@ -547,10 +547,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -564,10 +564,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>11</v>
@@ -584,7 +584,7 @@
         <v>356</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>15</v>
@@ -598,10 +598,10 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -615,10 +615,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -632,10 +632,10 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>8</v>
@@ -649,10 +649,10 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -666,10 +666,10 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <v>15</v>
@@ -683,10 +683,10 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>9</v>
@@ -700,10 +700,10 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>11</v>
